--- a/medicine/Enfance/Willis_Todhunter_Ballard/Willis_Todhunter_Ballard.xlsx
+++ b/medicine/Enfance/Willis_Todhunter_Ballard/Willis_Todhunter_Ballard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Willis Todhunter Ballard, né le 3 décembre 1903 à Cleveland dans l’Ohio et mort le 27 décembre 1980 à Mount Dora en Floride, est un écrivain américain, auteur de roman policier et de western.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est le cousin de Rex Stout [2]. Il sort diplômé de l'université de Wilmington en 1926. Il rencontre Harry Warner en 1929 qui lui propose de devenir scénariste à la First National Pictures[3]. Il le sera également pour Columbia Pictures. Il écrit de nombreux scénarios pour des séries télévisées comme Dick Tracy (en), Adventures of Wild Bill Hickok (en), Cowboy G-Men (en), Shotgun Slade (en), Les Aventuriers du Far West. Il commence à écrire de nombreuses nouvelles et les publie dans les pulps, en particulier dans Black Mask. Il y crée le héros Bill Lennox, détective producteur de films. Lennox apparaît dans le premier roman de Ballard, Say Yes to Murder en 1942. Il a également créé le personnage de Max Hunter, lieutenant de la brigade criminelle de Las Vegas, et sous le pseudonyme Neil MacNeil, les héros Tony Costain et Bert McCall.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le cousin de Rex Stout . Il sort diplômé de l'université de Wilmington en 1926. Il rencontre Harry Warner en 1929 qui lui propose de devenir scénariste à la First National Pictures. Il le sera également pour Columbia Pictures. Il écrit de nombreux scénarios pour des séries télévisées comme Dick Tracy (en), Adventures of Wild Bill Hickok (en), Cowboy G-Men (en), Shotgun Slade (en), Les Aventuriers du Far West. Il commence à écrire de nombreuses nouvelles et les publie dans les pulps, en particulier dans Black Mask. Il y crée le héros Bill Lennox, détective producteur de films. Lennox apparaît dans le premier roman de Ballard, Say Yes to Murder en 1942. Il a également créé le personnage de Max Hunter, lieutenant de la brigade criminelle de Las Vegas, et sous le pseudonyme Neil MacNeil, les héros Tony Costain et Bert McCall.
 Jusqu'en 1977, il écrit une centaine de romans dont la majorité appartiennent au western qui est son genre favori. En 1965, pour Gold in California, il obtient le Spur Award de la Western Writer's of America. Il meurt d’un cancer en 1980.
 </t>
         </is>
@@ -545,18 +559,103 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série Bill Lennox
-Say Yes to Murder, 1942, réédité sous le titre The Demise of a Louse signé John Shepherd
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Bill Lennox</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Say Yes to Murder, 1942, réédité sous le titre The Demise of a Louse signé John Shepherd
 Murder Can’t Stop, 1946 Publié en français sous le titre On n’arrête pas de tuer, Nicholson &amp; Watson, coll. « La Tour de Londres » no 35, 1949
 Dealing Out Death, 1948 Publié en français sous le titre La mort vient en jouant, Nicholson &amp; Watson, coll. « La Tour de Londres » no 25, 1948
 Murder Las Vegas Style, 1958
-Lights, Camera, Murder, 1960 (roman signé John Shepherd)
-Série Max Hunter
-Pretty Miss Murder, 1961
+Lights, Camera, Murder, 1960 (roman signé John Shepherd)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Willis_Todhunter_Ballard</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Willis_Todhunter_Ballard</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Max Hunter</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Pretty Miss Murder, 1961
 The Seven Sisters, 1962 Publié et signé W. T. Ballard en français sous le titre Les Sept Sœurs, Gallimard, Série noire no 974, 1965
-Three For the Money, 1963 Publié et signé W. T. Ballard en français sous le titre Ne mourrez jamais, Gallimard, Série noire no 964, 1965
-Autres romans
+Three For the Money, 1963 Publié et signé W. T. Ballard en français sous le titre Ne mourrez jamais, Gallimard, Série noire no 964, 1965</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Willis_Todhunter_Ballard</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Willis_Todhunter_Ballard</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Murder in Hollywood, 1951
 Walk in Fear, 1952
 Two-Edged Vengeance ou The Circle C Feud, 1952
@@ -595,34 +694,263 @@
 Trails of Rage, 1975
 The Sheriff of Tombstone, 1977
 Hollywood Troubleshooter, 1985 (roman posthume achevé par James L. Traylor)
-Signés Brian Agar
-Have Love, Will Share, 1961
-The Sex Web, 1967
-Signé Hunter d'Allard
-The Long Sword, 1962
-Signés P.D. Ballard
-Age of the Junkman, 1963
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Willis_Todhunter_Ballard</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Willis_Todhunter_Ballard</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Signés Brian Agar</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Have Love, Will Share, 1961
+The Sex Web, 1967</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Willis_Todhunter_Ballard</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Willis_Todhunter_Ballard</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Signé Hunter d'Allard</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>The Long Sword, 1962</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Willis_Todhunter_Ballard</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Willis_Todhunter_Ballard</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Signés P.D. Ballard</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Age of the Junkman, 1963
 End of a Millionaire, 1964
 Brothers in Blood, 1972 Publié en français sous le titre Frères de sang, Gallimard, Série noire no 1587, 1973
 Angel of Death, 1974
-The Death Brokers, 1974
-Signés Parker Bonner
-Superstition Range, 1952 Publié et signé Todhunter Ballard en français sous le titre La Chevauchée dans le désert, Librairie des Champs-Élysées, coll. Le Masque Western no 94, 1973
+The Death Brokers, 1974</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Willis_Todhunter_Ballard</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Willis_Todhunter_Ballard</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Signés Parker Bonner</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Superstition Range, 1952 Publié et signé Todhunter Ballard en français sous le titre La Chevauchée dans le désert, Librairie des Champs-Élysées, coll. Le Masque Western no 94, 1973
 Outlaw Brand, 1954
 Tough in the Saddle, 1964 Publié en français sous le titre Le Canyon de la mort, Librairie des Champs-Élysées, coll. Le Masque Western no 112, 1974
 Applegate's Gold, 1967
 Plunder Canyon, 1968
 The Town Tamer, 1968 Publié en français sous le titre Pour une mine d'or, Librairie des Champs-Élysées, coll. Le Masque Western no 123, 1974
 Look to Your Guns, 1969
-Borders to Cross, 1969
-Signés Sam Bowie
-Thunderhead Range, 1960
+Borders to Cross, 1969</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Willis_Todhunter_Ballard</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Willis_Todhunter_Ballard</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Signés Sam Bowie</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Thunderhead Range, 1960
 Gunlock, 1968
 Canyon War, 1969
 Chisum, 1970
-Train Robbers, 1973
-Signés Brian Fox
-A Dollar to Die For, 1968
+Train Robbers, 1973</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Willis_Todhunter_Ballard</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Willis_Todhunter_Ballard</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Signés Brian Fox</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>A Dollar to Die For, 1968
 The Wild Bunch, 1969
 Outlaw Trail, 1969
 Unholy Angel, 1969
@@ -631,10 +959,87 @@
 Apache Gold, 1971
 Dragooned, 1971
 Return of Sabata, 1972
-Bearcats!, 1973
-Signé Harrison Hunt
-Murder Picks the Jury , 1947 Publié en français sous le titre À l'estomac, Gallimard, Série noire no 84, 1951
-Signés John Hunter
+Bearcats!, 1973</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Willis_Todhunter_Ballard</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Willis_Todhunter_Ballard</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Signé Harrison Hunt</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Murder Picks the Jury , 1947 Publié en français sous le titre À l'estomac, Gallimard, Série noire no 84, 1951</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Willis_Todhunter_Ballard</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Willis_Todhunter_Ballard</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Signés John Hunter</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 West Justice, 1954
 Ride the Wind South, 1957
 The Marshal from Deadwood, 1958
@@ -651,31 +1056,294 @@
 The Higraders, 1974
 This Range is Mine, 1975
 Manhunt, 1975
-Signés Neil MacNeil
-Death Takes an Option, 1958 Publié en français sous le titre Option sur la mort, Presses internationales, Inter-Police Choc no 3, 1962
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Willis_Todhunter_Ballard</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Willis_Todhunter_Ballard</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Signés Neil MacNeil</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Death Takes an Option, 1958 Publié en français sous le titre Option sur la mort, Presses internationales, Inter-Police Choc no 3, 1962
 Third on a Seesaw, 1959
 Two Guns for Hire, 1959
 Hot Dam, 1960
 The Death Ride, 1960
 Mexican Slay Ride, 1962 Publié en français sous le titre Mystère à Mexico, Presses internationales, Inter-Police Choc no 14, 1962
-The Spy Catchers, 1966
-Signés Clint Reno
-Sun Mountain Slaughter, 1974
-Sierra Massacre, 1974
-Signé John Shepherd
-Lights, Camera, Murder, 1960
-Signé du nom maison Nick Carter
-The Kremlin File, 1973
-Signés du nom maison Jack Slade
-Lassiter, 1967
+The Spy Catchers, 1966</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Willis_Todhunter_Ballard</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Willis_Todhunter_Ballard</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Signés Clint Reno</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Sun Mountain Slaughter, 1974
+Sierra Massacre, 1974</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Willis_Todhunter_Ballard</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Willis_Todhunter_Ballard</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Signé John Shepherd</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Lights, Camera, Murder, 1960</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Willis_Todhunter_Ballard</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Willis_Todhunter_Ballard</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Signé du nom maison Nick Carter</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>The Kremlin File, 1973</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Willis_Todhunter_Ballard</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Willis_Todhunter_Ballard</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Signés du nom maison Jack Slade</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Lassiter, 1967
 Bandido, 1968
-The Man from Cheyenne, 1968
-Signés du nom maison Clay Turner
-Give a Man a Gun, 1971
+The Man from Cheyenne, 1968</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Willis_Todhunter_Ballard</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Willis_Todhunter_Ballard</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Signés du nom maison Clay Turner</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Give a Man a Gun, 1971
 Gold Goes to the Mountain, 1974
-Go West, Ben Gold!, 1974
-Nouvelles
-Parues dans Black Mask
+Go West, Ben Gold!, 1974</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Willis_Todhunter_Ballard</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Willis_Todhunter_Ballard</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parues dans Black Mask
 A Little Different, 1933
 A Million Dollar Tramp, 1933
 Positively the Best Liar, 1933
@@ -719,36 +1387,73 @@
 The Con Man and the Cop, 1942
 Sing for Your Slaughter, 1944
 Dressed to Kill, 1945
-Autre ouvrage
-How to Defend Yourself, Your Family, and Your Home, 1967</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Willis_Todhunter_Ballard</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Willis_Todhunter_Ballard</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Willis_Todhunter_Ballard</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Willis_Todhunter_Ballard</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Autre ouvrage</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>How to Defend Yourself, Your Family, and Your Home, 1967</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Willis_Todhunter_Ballard</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Willis_Todhunter_Ballard</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t>Claude Mesplède (dir.), Dictionnaire des littératures policières, vol. 1 : A - I, Nantes, Joseph K, coll. « Temps noir », 2007, 1054 p. (ISBN 978-2-910686-44-4, OCLC 315873251), p. 141-142.
 Claude Mesplède, Les années "Série noire" : bibliographie critique d'une collection policière, vol. 2 : 1959-1966, Amiens, Editions Encrage, coll. « Travaux » (no 17), 1993, 4 p. (ISBN 978-2-906389-43-4).
